--- a/templates/rr_schedules/rr_14.xlsx
+++ b/templates/rr_schedules/rr_14.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/rr_schedules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/templates/rr_schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D405C6-D218-6345-8ABD-754B0B92D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062AAA61-5F76-5F48-B7CE-25CA1FA01045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1140" windowWidth="30780" windowHeight="19420" xr2:uid="{9E58356C-D73F-FC43-AA9C-FFAB6CC6AEB1}"/>
   </bookViews>
@@ -29,10 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +387,7 @@
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:N14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
